--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -136,10 +136,7 @@
     <t>Two run URLs with conclusions and downstream run status.; Logs showing conditional gate `github.event.workflow_run.conclusion == 'success'`.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 110</t>
+    <t>Derived from SRS line 110; Guard present in .github/workflows/tag-and-release.yml to exit unless workflow_run.conclusion == success.</t>
   </si>
   <si>
     <t>TRW-003</t>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>YAML snippet with `if: ${{ github.event.workflow_run.event == 'push' }}`.; Run logs/screens showing skip on non-push events.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 111</t>
@@ -1379,24 +1379,24 @@
         <v>29</v>
       </c>
       <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
         <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1411,14 +1411,14 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
       <c r="K4" t="s">
         <v>28</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
         <v>31</v>
@@ -1473,7 +1473,7 @@
         <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
         <v>31</v>
@@ -1520,7 +1520,7 @@
         <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
@@ -1567,7 +1567,7 @@
         <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
         <v>31</v>
@@ -1614,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
         <v>31</v>
@@ -1661,7 +1661,7 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
@@ -1708,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
@@ -1755,7 +1755,7 @@
         <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1802,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1849,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -155,10 +155,7 @@
     <t>YAML snippet with `if: ${{ github.event.workflow_run.event == 'push' }}`.; Run logs/screens showing skip on non-push events.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 111</t>
+    <t>Derived from SRS line 111; Guard present in .github/workflows/tag-and-release.yml to exit unless workflow_run.event == push.</t>
   </si>
   <si>
     <t>TRW-004</t>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>Config file or YAML `if` expression showing pattern check.; Run logs from both allowed and disallowed branches.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 112</t>
@@ -1426,24 +1426,24 @@
         <v>29</v>
       </c>
       <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
         <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -1452,20 +1452,20 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>52</v>
       </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
       <c r="K5" t="s">
         <v>28</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
         <v>31</v>
@@ -1520,7 +1520,7 @@
         <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
@@ -1567,7 +1567,7 @@
         <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
         <v>31</v>
@@ -1593,10 +1593,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
       </c>
       <c r="H8" t="s">
         <v>71</v>
@@ -1614,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
         <v>31</v>
@@ -1661,7 +1661,7 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
@@ -1708,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
@@ -1755,7 +1755,7 @@
         <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1802,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1849,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2110,10 +2110,10 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
         <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
       </c>
       <c r="H19" t="s">
         <v>142</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -181,10 +181,7 @@
     <t>Config file or YAML `if` expression showing pattern check.; Run logs from both allowed and disallowed branches.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 112</t>
+    <t>Derived from SRS line 112; Allow-list enforced in .github/workflows/tag-and-release.yml with defaults (main, develop, release-alpha/*, release-beta/*, release-rc/*) and optional extensions via ALLOWED_BRANCH_PATTERNS.</t>
   </si>
   <si>
     <t>TRW-005</t>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Run log capturing no-op decision.; Release/tags UI showing no changes.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 113</t>
@@ -1473,24 +1473,24 @@
         <v>29</v>
       </c>
       <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
         <v>53</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1505,14 +1505,14 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
       <c r="K6" t="s">
         <v>28</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
@@ -1567,7 +1567,7 @@
         <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
         <v>31</v>
@@ -1614,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
         <v>31</v>
@@ -1661,7 +1661,7 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
@@ -1708,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
@@ -1755,7 +1755,7 @@
         <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1802,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1849,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -200,10 +200,7 @@
     <t>Run log capturing no-op decision.; Release/tags UI showing no changes.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 113</t>
+    <t>Derived from SRS line 113; Branch allow-list gate in .github/workflows/tag-and-release.yml exits before tag/release steps for disallowed branches.</t>
   </si>
   <si>
     <t>TRW-006</t>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>YAML snippet of `concurrency` block.; Run timeline screenshots showing queuing/cancellation.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 114</t>
@@ -1520,27 +1520,27 @@
         <v>29</v>
       </c>
       <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
         <v>59</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1552,14 +1552,14 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
       <c r="K7" t="s">
         <v>28</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
         <v>31</v>
@@ -1614,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
         <v>31</v>
@@ -1661,7 +1661,7 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
@@ -1708,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
@@ -1755,7 +1755,7 @@
         <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1802,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1849,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2903,7 +2903,7 @@
         <v>253</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -223,10 +223,7 @@
     <t>YAML snippet of `concurrency` block.; Run timeline screenshots showing queuing/cancellation.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 114</t>
+    <t>Derived from SRS line 114; Concurrency configured in .github/workflows/tag-and-release.yml with group: ${{ github.workflow }}-${{ github.event.workflow_run.head_sha }} and cancel-in-progress: true to ensure one run per commit.</t>
   </si>
   <si>
     <t>TRW-010</t>
@@ -249,7 +246,7 @@
     <t>Logs with last tag, parsed parts, and commit count.; Printed `VERSION_STRING`.</t>
   </si>
   <si>
-    <t>Derived from SRS line 120</t>
+    <t>Derived from SRS line 120; Compute-version action derives MAJOR/MINOR/PATCH from last reachable tag, defaults to 0.1.0 if none, and sets BUILD to commit count since that tag.</t>
   </si>
   <si>
     <t>TRW-011</t>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>Log excerpt showing base version fallback path.; `VERSION_STRING` value in output.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 121</t>
@@ -1567,24 +1567,24 @@
         <v>29</v>
       </c>
       <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
         <v>66</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -1599,69 +1599,69 @@
         <v>49</v>
       </c>
       <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
         <v>71</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>72</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
         <v>73</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
         <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
         <v>77</v>
       </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>78</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>79</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
         <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>66</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
@@ -1675,7 +1675,7 @@
         <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
@@ -1708,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
@@ -1722,7 +1722,7 @@
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>
@@ -1755,7 +1755,7 @@
         <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1769,7 +1769,7 @@
         <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -1802,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1816,7 +1816,7 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>102</v>
@@ -1849,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
@@ -1863,7 +1863,7 @@
         <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2483,7 +2483,7 @@
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2624,7 +2624,7 @@
         <v>214</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2812,7 +2812,7 @@
         <v>241</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2859,7 +2859,7 @@
         <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2953,7 +2953,7 @@
         <v>261</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -268,10 +268,7 @@
     <t>Log excerpt showing base version fallback path.; `VERSION_STRING` value in output.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 121</t>
+    <t>Derived from SRS line 121; Compute-version action falls back to base version 0.1.0 when no prior tag exists before applying bump rules.</t>
   </si>
   <si>
     <t>TRW-012</t>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>CI logs mapping label to bump type.; Failure log for multiple labels.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 122</t>
@@ -1661,24 +1661,24 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
         <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1693,22 +1693,22 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
         <v>84</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>85</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
         <v>86</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
@@ -1755,7 +1755,7 @@
         <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1802,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1849,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -288,10 +288,7 @@
     <t>CI logs mapping label to bump type.; Failure log for multiple labels.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 122</t>
+    <t>Derived from SRS line 122; Compute-version action selects bump from PR labels (major/minor/patch), defaults to patch when none, and fails with a clear diagnostic if multiple labels are present.</t>
   </si>
   <si>
     <t>TRW-013</t>
@@ -308,6 +305,9 @@
   </si>
   <si>
     <t>Logs showing selected bump type and branch context.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 123</t>
@@ -1708,24 +1708,24 @@
         <v>29</v>
       </c>
       <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
         <v>86</v>
-      </c>
-      <c r="N10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1740,22 +1740,22 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" t="s">
         <v>90</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>91</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
         <v>92</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>86</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1802,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1849,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -307,28 +307,28 @@
     <t>Logs showing selected bump type and branch context.</t>
   </si>
   <si>
+    <t>Derived from SRS line 123; Compute-version action defaults bump to patch on release branches (release-alpha/*, release-beta/*, release-rc/*, release/*) in non-PR contexts.</t>
+  </si>
+  <si>
+    <t>TRW-014</t>
+  </si>
+  <si>
+    <t>The workflow **shall emit outputs**: `MAJOR`, `MINOR`, `PATCH`, `BUILD_NUMBER`, `VERSION_STRING`, and `IS_PRERELEASE`.</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>`MAJOR`, `MINOR`, `PATCH`, `BUILD_NUMBER`, `VERSION_STRING`, and `IS_PRERELEASE` are exported and visible to subsequent steps.</t>
+  </si>
+  <si>
+    <t>Run the version step and capture exported outputs.</t>
+  </si>
+  <si>
+    <t>Job output or `GITHUB_OUTPUT` file contents.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 123</t>
-  </si>
-  <si>
-    <t>TRW-014</t>
-  </si>
-  <si>
-    <t>The workflow **shall emit outputs**: `MAJOR`, `MINOR`, `PATCH`, `BUILD_NUMBER`, `VERSION_STRING`, and `IS_PRERELEASE`.</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>`MAJOR`, `MINOR`, `PATCH`, `BUILD_NUMBER`, `VERSION_STRING`, and `IS_PRERELEASE` are exported and visible to subsequent steps.</t>
-  </si>
-  <si>
-    <t>Run the version step and capture exported outputs.</t>
-  </si>
-  <si>
-    <t>Job output or `GITHUB_OUTPUT` file contents.</t>
   </si>
   <si>
     <t>Derived from SRS line 124</t>
@@ -1755,54 +1755,54 @@
         <v>29</v>
       </c>
       <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
         <v>92</v>
-      </c>
-      <c r="N11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
       </c>
       <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
         <v>95</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
         <v>96</v>
       </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>97</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>98</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
         <v>99</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>92</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1849,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1916,7 +1916,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2433,7 +2433,7 @@
         <v>187</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -328,10 +328,7 @@
     <t>Job output or `GITHUB_OUTPUT` file contents.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 124</t>
+    <t>Derived from SRS line 124; Compute-version action exports MAJOR, MINOR, PATCH, BUILD_NUMBER, VERSION_STRING, and IS_PRERELEASE for downstream steps.</t>
   </si>
   <si>
     <t>TRW-015</t>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>Computed version strings for each branch case.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 125</t>
@@ -1802,24 +1802,24 @@
         <v>29</v>
       </c>
       <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
         <v>99</v>
-      </c>
-      <c r="N12" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1834,22 +1834,22 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" t="s">
         <v>103</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>104</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
         <v>105</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>99</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
@@ -1896,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -347,10 +347,7 @@
     <t>Computed version strings for each branch case.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 125</t>
+    <t>Derived from SRS line 125; Compute-version action applies suffixes alpha.&lt;BUILD&gt;, beta.&lt;BUILD&gt;, rc.&lt;BUILD&gt; for release-alpha/beta/rc branches and no suffix for stable branches.</t>
   </si>
   <si>
     <t>TRW-016</t>
@@ -367,6 +364,9 @@
   </si>
   <si>
     <t>Logs showing `IS_PRERELEASE` and final version strings.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 126</t>
@@ -1849,24 +1849,24 @@
         <v>29</v>
       </c>
       <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
         <v>105</v>
-      </c>
-      <c r="N13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1881,22 +1881,22 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
         <v>109</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>110</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
         <v>111</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s">
-        <v>105</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -366,10 +366,7 @@
     <t>Logs showing `IS_PRERELEASE` and final version strings.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 126</t>
+    <t>Derived from SRS line 126; Compute-version action marks prerelease branches with suffix and sets IS_PRERELEASE=true; stable branches emit no suffix and IS_PRERELEASE=false.</t>
   </si>
   <si>
     <t>TRW-020</t>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>Printed tag value; regex check result.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 132</t>
@@ -1896,24 +1896,24 @@
         <v>29</v>
       </c>
       <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" t="s">
         <v>111</v>
-      </c>
-      <c r="N14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
         <v>113</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>114</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
       </c>
       <c r="D15" t="s">
         <v>95</v>
@@ -1922,28 +1922,28 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
       </c>
       <c r="H15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" t="s">
         <v>117</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>118</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
         <v>119</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" t="s">
-        <v>111</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
         <v>122</v>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2004,7 +2004,7 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2051,7 +2051,7 @@
         <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
         <v>134</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2098,7 +2098,7 @@
         <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
         <v>140</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2721,7 +2721,7 @@
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G32" t="s">
         <v>24</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3003,7 +3003,7 @@
         <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
         <v>24</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -391,10 +391,7 @@
     <t>Printed tag value; regex check result.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 132</t>
+    <t>Derived from SRS line 132; Tag-and-release workflow forms tags as v&lt;MAJOR&gt;.&lt;MINOR&gt;.&lt;PATCH&gt;.&lt;BUILD&gt; without prerelease suffix.</t>
   </si>
   <si>
     <t>TRW-021</t>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>Command output or API response showing tag and SHA.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 133</t>
@@ -1943,24 +1943,24 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" t="s">
         <v>119</v>
-      </c>
-      <c r="N15" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
         <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1975,22 +1975,22 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" t="s">
         <v>123</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>124</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
         <v>125</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" t="s">
-        <v>119</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -410,10 +410,7 @@
     <t>Command output or API response showing tag and SHA.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 133</t>
+    <t>Derived from SRS line 133; Tag-and-release workflow checks origin for existing tag and captures SHA via git ls-remote before creation.</t>
   </si>
   <si>
     <t>TRW-022</t>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>Logs indicating detection of same-commit tag and skip path.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 134</t>
@@ -1990,24 +1990,24 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
         <v>125</v>
-      </c>
-      <c r="N16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -2022,22 +2022,22 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" t="s">
         <v>129</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>130</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
         <v>131</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" t="s">
-        <v>125</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -429,10 +429,7 @@
     <t>Logs indicating detection of same-commit tag and skip path.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 134</t>
+    <t>Derived from SRS line 134; Tag-and-release workflow treats existing tag on same commit as success and skips duplicate creation.</t>
   </si>
   <si>
     <t>TRW-023</t>
@@ -449,6 +446,9 @@
   </si>
   <si>
     <t>Logs with the two SHAs and failure status.; Tag ref still points to original commit.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 135</t>
@@ -2037,24 +2037,24 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" t="s">
         <v>131</v>
-      </c>
-      <c r="N17" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
         <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -2069,22 +2069,22 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
         <v>135</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>136</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
         <v>137</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" t="s">
-        <v>131</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -448,10 +448,7 @@
     <t>Logs with the two SHAs and failure status.; Tag ref still points to original commit.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 135</t>
+    <t>Derived from SRS line 135; Tag-and-release workflow fails if existing tag points to a different commit and does not overwrite it.</t>
   </si>
   <si>
     <t>TRW-024</t>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>Logs showing branch-safe versioning decision.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 136</t>
@@ -2084,27 +2084,27 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
         <v>137</v>
-      </c>
-      <c r="N18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
         <v>113</v>
       </c>
       <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
         <v>140</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -2116,22 +2116,22 @@
         <v>49</v>
       </c>
       <c r="H19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" t="s">
         <v>142</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>143</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
         <v>144</v>
-      </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s">
-        <v>137</v>
       </c>
       <c r="N19" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -470,31 +470,31 @@
     <t>Logs showing branch-safe versioning decision.</t>
   </si>
   <si>
+    <t>Derived from SRS line 136; Tag-and-release workflow fails on conflicting existing tags, ensuring different branches cannot produce identical tags and overwrite each other.</t>
+  </si>
+  <si>
+    <t>TRW-030</t>
+  </si>
+  <si>
+    <t>9.4 Artifact Requirements &amp; Validation</t>
+  </si>
+  <si>
+    <t>The workflow **shall rely on artifacts** uploaded by the upstream CI run associated with the triggering `workflow_run`.</t>
+  </si>
+  <si>
+    <t>Demonstration</t>
+  </si>
+  <si>
+    <t>Workflow downloads artifacts from upstream run.</t>
+  </si>
+  <si>
+    <t>Verify presence of artifact download step referencing the upstream `workflow_run` ID.</t>
+  </si>
+  <si>
+    <t>Logs of artifact download with run ID.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 136</t>
-  </si>
-  <si>
-    <t>TRW-030</t>
-  </si>
-  <si>
-    <t>9.4 Artifact Requirements &amp; Validation</t>
-  </si>
-  <si>
-    <t>The workflow **shall rely on artifacts** uploaded by the upstream CI run associated with the triggering `workflow_run`.</t>
-  </si>
-  <si>
-    <t>Demonstration</t>
-  </si>
-  <si>
-    <t>Workflow downloads artifacts from upstream run.</t>
-  </si>
-  <si>
-    <t>Verify presence of artifact download step referencing the upstream `workflow_run` ID.</t>
-  </si>
-  <si>
-    <t>Logs of artifact download with run ID.</t>
   </si>
   <si>
     <t>Derived from SRS line 142</t>
@@ -2131,24 +2131,24 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" t="s">
         <v>144</v>
-      </c>
-      <c r="N19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
         <v>146</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>147</v>
-      </c>
-      <c r="C20" t="s">
-        <v>148</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -2157,28 +2157,28 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" t="s">
         <v>149</v>
       </c>
-      <c r="G20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>150</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>151</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
         <v>152</v>
-      </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" t="s">
-        <v>144</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -2192,7 +2192,7 @@
         <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
         <v>155</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2239,7 +2239,7 @@
         <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
         <v>161</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2286,7 +2286,7 @@
         <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
         <v>167</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2333,7 +2333,7 @@
         <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
         <v>174</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -494,25 +494,25 @@
     <t>Logs of artifact download with run ID.</t>
   </si>
   <si>
+    <t>Derived from SRS line 142; Tag-and-release workflow downloads artifacts from the triggering workflow_run via actions/download-artifact using run-id.</t>
+  </si>
+  <si>
+    <t>TRW-031</t>
+  </si>
+  <si>
+    <t>The workflow **shall download** the artifacts of the triggering `workflow_run`.</t>
+  </si>
+  <si>
+    <t>Artifacts are retrieved to the runner workspace.</t>
+  </si>
+  <si>
+    <t>Enumerate artifacts available from `workflow_run` and download them.</t>
+  </si>
+  <si>
+    <t>Artifact list and local file tree snapshot.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 142</t>
-  </si>
-  <si>
-    <t>TRW-031</t>
-  </si>
-  <si>
-    <t>The workflow **shall download** the artifacts of the triggering `workflow_run`.</t>
-  </si>
-  <si>
-    <t>Artifacts are retrieved to the runner workspace.</t>
-  </si>
-  <si>
-    <t>Enumerate artifacts available from `workflow_run` and download them.</t>
-  </si>
-  <si>
-    <t>Artifact list and local file tree snapshot.</t>
   </si>
   <si>
     <t>Derived from SRS line 143</t>
@@ -2178,24 +2178,24 @@
         <v>29</v>
       </c>
       <c r="M20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" t="s">
         <v>152</v>
-      </c>
-      <c r="N20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R20" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
         <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -2210,22 +2210,22 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" t="s">
         <v>156</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>157</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
         <v>158</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" t="s">
-        <v>152</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -2272,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -512,25 +512,25 @@
     <t>Artifact list and local file tree snapshot.</t>
   </si>
   <si>
+    <t>Derived from SRS line 143; Tag-and-release workflow downloads artifacts from triggering workflow_run and lists them under artifacts/ for verification.</t>
+  </si>
+  <si>
+    <t>TRW-032</t>
+  </si>
+  <si>
+    <t>The workflow **shall locate exactly one** `.vip` package and **exactly one** release notes Markdown file within the downloaded artifacts.</t>
+  </si>
+  <si>
+    <t>Exactly one of each required artifact is located.</t>
+  </si>
+  <si>
+    <t>Search the artifacts for exactly one `.vip` package and exactly one release-notes markdown file.</t>
+  </si>
+  <si>
+    <t>File list with counts; names of selected files.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 143</t>
-  </si>
-  <si>
-    <t>TRW-032</t>
-  </si>
-  <si>
-    <t>The workflow **shall locate exactly one** `.vip` package and **exactly one** release notes Markdown file within the downloaded artifacts.</t>
-  </si>
-  <si>
-    <t>Exactly one of each required artifact is located.</t>
-  </si>
-  <si>
-    <t>Search the artifacts for exactly one `.vip` package and exactly one release-notes markdown file.</t>
-  </si>
-  <si>
-    <t>File list with counts; names of selected files.</t>
   </si>
   <si>
     <t>Derived from SRS line 144</t>
@@ -2225,24 +2225,24 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" t="s">
         <v>158</v>
-      </c>
-      <c r="N21" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
         <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -2257,22 +2257,22 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" t="s">
         <v>162</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>163</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
         <v>164</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" t="s">
-        <v>158</v>
       </c>
       <c r="N22" t="s">
         <v>31</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -530,28 +530,28 @@
     <t>File list with counts; names of selected files.</t>
   </si>
   <si>
+    <t>Derived from SRS line 144; Tag-and-release workflow enforces exactly one .vip and one release_notes_*.md in artifacts, failing on missing or plural occurrences.</t>
+  </si>
+  <si>
+    <t>TRW-033</t>
+  </si>
+  <si>
+    <t>The filenames of those artifacts **shall contain** the computed `VERSION_STRING` to enforce **version–artifact consistency**.</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Both filenames contain the computed version string.</t>
+  </si>
+  <si>
+    <t>Compare computed `VERSION_STRING` against artifact filenames.</t>
+  </si>
+  <si>
+    <t>Screenshot or log of filename match check.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 144</t>
-  </si>
-  <si>
-    <t>TRW-033</t>
-  </si>
-  <si>
-    <t>The filenames of those artifacts **shall contain** the computed `VERSION_STRING` to enforce **version–artifact consistency**.</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Both filenames contain the computed version string.</t>
-  </si>
-  <si>
-    <t>Compare computed `VERSION_STRING` against artifact filenames.</t>
-  </si>
-  <si>
-    <t>Screenshot or log of filename match check.</t>
   </si>
   <si>
     <t>Derived from SRS line 145</t>
@@ -2272,54 +2272,54 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" t="s">
         <v>164</v>
-      </c>
-      <c r="N22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
         <v>146</v>
       </c>
       <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
         <v>167</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
         <v>168</v>
       </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>169</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>170</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" t="s">
         <v>171</v>
-      </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" t="s">
-        <v>164</v>
       </c>
       <c r="N23" t="s">
         <v>31</v>
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2762,7 +2762,7 @@
         <v>233</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -551,10 +551,7 @@
     <t>Screenshot or log of filename match check.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 145</t>
+    <t>Derived from SRS line 145; Tag-and-release workflow validates both artifact filenames contain computed version string.</t>
   </si>
   <si>
     <t>TRW-034</t>
@@ -571,6 +568,9 @@
   </si>
   <si>
     <t>Failure logs including diagnostic details.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 146</t>
@@ -2319,24 +2319,24 @@
         <v>29</v>
       </c>
       <c r="M23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" t="s">
         <v>171</v>
-      </c>
-      <c r="N23" t="s">
-        <v>31</v>
-      </c>
-      <c r="R23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
         <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -2351,22 +2351,22 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" t="s">
         <v>175</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>176</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s">
         <v>177</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" t="s">
-        <v>171</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -570,28 +570,28 @@
     <t>Failure logs including diagnostic details.</t>
   </si>
   <si>
+    <t>Derived from SRS line 146; Locate-artifacts step fails with detailed counts and file list when required artifacts are missing or duplicated.</t>
+  </si>
+  <si>
+    <t>TRW-040</t>
+  </si>
+  <si>
+    <t>9.5 Release Creation &amp; Publishing</t>
+  </si>
+  <si>
+    <t>The workflow **shall create a draft GitHub Release** and attach the `.vip` and release notes assets.</t>
+  </si>
+  <si>
+    <t>Draft release exists with both `.vip` and release notes attached.</t>
+  </si>
+  <si>
+    <t>Call the Releases API (or use action) to create a draft release with assets.</t>
+  </si>
+  <si>
+    <t>Release page URL and asset list.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 146</t>
-  </si>
-  <si>
-    <t>TRW-040</t>
-  </si>
-  <si>
-    <t>9.5 Release Creation &amp; Publishing</t>
-  </si>
-  <si>
-    <t>The workflow **shall create a draft GitHub Release** and attach the `.vip` and release notes assets.</t>
-  </si>
-  <si>
-    <t>Draft release exists with both `.vip` and release notes attached.</t>
-  </si>
-  <si>
-    <t>Call the Releases API (or use action) to create a draft release with assets.</t>
-  </si>
-  <si>
-    <t>Release page URL and asset list.</t>
   </si>
   <si>
     <t>Derived from SRS line 152</t>
@@ -2366,24 +2366,24 @@
         <v>29</v>
       </c>
       <c r="M24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" t="s">
         <v>177</v>
-      </c>
-      <c r="N24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
         <v>179</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>180</v>
-      </c>
-      <c r="C25" t="s">
-        <v>181</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -2398,22 +2398,22 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" t="s">
         <v>182</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>183</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
         <v>184</v>
-      </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" t="s">
-        <v>177</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -2427,7 +2427,7 @@
         <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
         <v>187</v>
@@ -2460,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2474,7 +2474,7 @@
         <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
         <v>193</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2521,7 +2521,7 @@
         <v>198</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
         <v>199</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2568,7 +2568,7 @@
         <v>204</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
         <v>205</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -591,10 +591,7 @@
     <t>Release page URL and asset list.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 152</t>
+    <t>Derived from SRS line 152; Tag-and-release workflow uses softprops/action-gh-release to create a draft release with .vip and release notes attached.</t>
   </si>
   <si>
     <t>TRW-041</t>
@@ -611,6 +608,9 @@
   </si>
   <si>
     <t>API response or UI screenshot for both cases.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 153</t>
@@ -2413,24 +2413,24 @@
         <v>29</v>
       </c>
       <c r="M25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" t="s">
         <v>184</v>
-      </c>
-      <c r="N25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R25" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
         <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
         <v>95</v>
@@ -2445,22 +2445,22 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" t="s">
         <v>188</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>189</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" t="s">
-        <v>184</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -610,25 +610,25 @@
     <t>API response or UI screenshot for both cases.</t>
   </si>
   <si>
+    <t>Derived from SRS line 153; Releases created/updated with prerelease flag set from IS_PRERELEASE output.</t>
+  </si>
+  <si>
+    <t>TRW-042</t>
+  </si>
+  <si>
+    <t>When a release with the computed tag already exists, the workflow **shall update** that release record rather than create a new one.</t>
+  </si>
+  <si>
+    <t>Existing release is updated in place; no duplicate release is created.</t>
+  </si>
+  <si>
+    <t>If a release with the computed tag exists, update it rather than creating a new one.</t>
+  </si>
+  <si>
+    <t>Release history showing updates, not new creation.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 153</t>
-  </si>
-  <si>
-    <t>TRW-042</t>
-  </si>
-  <si>
-    <t>When a release with the computed tag already exists, the workflow **shall update** that release record rather than create a new one.</t>
-  </si>
-  <si>
-    <t>Existing release is updated in place; no duplicate release is created.</t>
-  </si>
-  <si>
-    <t>If a release with the computed tag exists, update it rather than creating a new one.</t>
-  </si>
-  <si>
-    <t>Release history showing updates, not new creation.</t>
   </si>
   <si>
     <t>Derived from SRS line 154</t>
@@ -2460,24 +2460,24 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" t="s">
         <v>190</v>
-      </c>
-      <c r="N26" t="s">
-        <v>31</v>
-      </c>
-      <c r="R26" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
         <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2492,22 +2492,22 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" t="s">
         <v>194</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>195</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
         <v>196</v>
-      </c>
-      <c r="K27" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" t="s">
-        <v>190</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -628,25 +628,25 @@
     <t>Release history showing updates, not new creation.</t>
   </si>
   <si>
+    <t>Derived from SRS line 154; Publish step reuses existing release if present, otherwise creates and updates the same release record (no duplicates).</t>
+  </si>
+  <si>
+    <t>TRW-043</t>
+  </si>
+  <si>
+    <t>Upon successful validation, the workflow **shall publish** the release (transition from draft) and **shall mark it as latest** per repository policy.</t>
+  </si>
+  <si>
+    <t>Release is published and marked latest (if applicable).</t>
+  </si>
+  <si>
+    <t>Transition a draft to published and set as latest per repo policy.</t>
+  </si>
+  <si>
+    <t>Release status in UI/API.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 154</t>
-  </si>
-  <si>
-    <t>TRW-043</t>
-  </si>
-  <si>
-    <t>Upon successful validation, the workflow **shall publish** the release (transition from draft) and **shall mark it as latest** per repository policy.</t>
-  </si>
-  <si>
-    <t>Release is published and marked latest (if applicable).</t>
-  </si>
-  <si>
-    <t>Transition a draft to published and set as latest per repo policy.</t>
-  </si>
-  <si>
-    <t>Release status in UI/API.</t>
   </si>
   <si>
     <t>Derived from SRS line 155</t>
@@ -2507,24 +2507,24 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" t="s">
         <v>196</v>
-      </c>
-      <c r="N27" t="s">
-        <v>31</v>
-      </c>
-      <c r="R27" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s">
         <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -2539,22 +2539,22 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" t="s">
         <v>200</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>201</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" t="s">
         <v>202</v>
-      </c>
-      <c r="K28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" t="s">
-        <v>196</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -628,7 +628,10 @@
     <t>Release history showing updates, not new creation.</t>
   </si>
   <si>
-    <t>Derived from SRS line 154; Publish step reuses existing release if present, otherwise creates and updates the same release record (no duplicates).</t>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Derived from SRS line 154</t>
   </si>
   <si>
     <t>TRW-043</t>
@@ -644,9 +647,6 @@
   </si>
   <si>
     <t>Release status in UI/API.</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 155</t>
@@ -2507,24 +2507,24 @@
         <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
       </c>
       <c r="R27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
         <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -2539,13 +2539,13 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s">
         <v>28</v>
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -646,10 +646,7 @@
     <t>Release status in UI/API.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 155</t>
+    <t>Derived from SRS line 155; Tag-and-release publish step updates existing release, sets draft=false, make_latest=true, and respects prerelease flag.</t>
   </si>
   <si>
     <t>TRW-044</t>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>Permission settings and successful API call logs.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>Derived from SRS line 156</t>
@@ -2554,27 +2554,27 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" t="s">
         <v>202</v>
-      </c>
-      <c r="N28" t="s">
-        <v>31</v>
-      </c>
-      <c r="R28" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
         <v>179</v>
       </c>
       <c r="C29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" t="s">
         <v>205</v>
-      </c>
-      <c r="D29" t="s">
-        <v>206</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -2586,22 +2586,22 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" t="s">
         <v>207</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>208</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
         <v>209</v>
-      </c>
-      <c r="K29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" t="s">
-        <v>202</v>
       </c>
       <c r="N29" t="s">
         <v>31</v>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -668,31 +668,31 @@
     <t>Permission settings and successful API call logs.</t>
   </si>
   <si>
+    <t>Derived from SRS line 156; Workflow/job permissions grant contents: write and all release/tag operations use GITHUB_TOKEN.</t>
+  </si>
+  <si>
+    <t>TRW-050</t>
+  </si>
+  <si>
+    <t>9.6 Error Handling, Retries &amp; Robustness</t>
+  </si>
+  <si>
+    <t>Tag push operations **shall be retried** (minimum 3 attempts, ≥5s back‑off between attempts).</t>
+  </si>
+  <si>
+    <t>Quality/Reliability</t>
+  </si>
+  <si>
+    <t>Tag push is retried (e.g., 3 attempts, 5s delay) before final failure/success.</t>
+  </si>
+  <si>
+    <t>Attempt to push tag with a simulated transient error and verify retry mechanism (e.g., mock failure or use retryable command).</t>
+  </si>
+  <si>
+    <t>Logs showing retry count and delays.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 156</t>
-  </si>
-  <si>
-    <t>TRW-050</t>
-  </si>
-  <si>
-    <t>9.6 Error Handling, Retries &amp; Robustness</t>
-  </si>
-  <si>
-    <t>Tag push operations **shall be retried** (minimum 3 attempts, ≥5s back‑off between attempts).</t>
-  </si>
-  <si>
-    <t>Quality/Reliability</t>
-  </si>
-  <si>
-    <t>Tag push is retried (e.g., 3 attempts, 5s delay) before final failure/success.</t>
-  </si>
-  <si>
-    <t>Attempt to push tag with a simulated transient error and verify retry mechanism (e.g., mock failure or use retryable command).</t>
-  </si>
-  <si>
-    <t>Logs showing retry count and delays.</t>
   </si>
   <si>
     <t>Derived from SRS line 162</t>
@@ -2601,27 +2601,27 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" t="s">
         <v>209</v>
-      </c>
-      <c r="N29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
         <v>211</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>212</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>213</v>
-      </c>
-      <c r="D30" t="s">
-        <v>214</v>
       </c>
       <c r="E30" t="s">
         <v>76</v>
@@ -2633,22 +2633,22 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" t="s">
         <v>215</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>216</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" t="s">
         <v>217</v>
-      </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" t="s">
-        <v>209</v>
       </c>
       <c r="N30" t="s">
         <v>31</v>
@@ -2662,13 +2662,13 @@
         <v>219</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
         <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -2695,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2709,7 +2709,7 @@
         <v>225</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
         <v>226</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2756,7 +2756,7 @@
         <v>232</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
         <v>233</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -692,25 +692,25 @@
     <t>Logs showing retry count and delays.</t>
   </si>
   <si>
+    <t>Derived from SRS line 162; Tag creation step retries push 3 times with 5s backoff before failing.</t>
+  </si>
+  <si>
+    <t>TRW-051</t>
+  </si>
+  <si>
+    <t>Release API operations **shall detect** a not‑found (404) response and **shall create** the release; other API errors **shall be handled gracefully** with diagnostics and non‑destructive behavior.</t>
+  </si>
+  <si>
+    <t>404 triggers creation path; other errors are surfaced with graceful handling.</t>
+  </si>
+  <si>
+    <t>Invoke release API to fetch by tag; if 404, create release; handle other codes per policy.</t>
+  </si>
+  <si>
+    <t>Logs for 404 branch and for non-404 error handling.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 162</t>
-  </si>
-  <si>
-    <t>TRW-051</t>
-  </si>
-  <si>
-    <t>Release API operations **shall detect** a not‑found (404) response and **shall create** the release; other API errors **shall be handled gracefully** with diagnostics and non‑destructive behavior.</t>
-  </si>
-  <si>
-    <t>404 triggers creation path; other errors are surfaced with graceful handling.</t>
-  </si>
-  <si>
-    <t>Invoke release API to fetch by tag; if 404, create release; handle other codes per policy.</t>
-  </si>
-  <si>
-    <t>Logs for 404 branch and for non-404 error handling.</t>
   </si>
   <si>
     <t>Derived from SRS line 163</t>
@@ -2648,24 +2648,24 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" t="s">
         <v>217</v>
-      </c>
-      <c r="N30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R30" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s">
         <v>211</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
         <v>213</v>
@@ -2680,22 +2680,22 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" t="s">
         <v>221</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>222</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" t="s">
         <v>223</v>
-      </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" t="s">
-        <v>217</v>
       </c>
       <c r="N31" t="s">
         <v>31</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -710,28 +710,28 @@
     <t>Logs for 404 branch and for non-404 error handling.</t>
   </si>
   <si>
+    <t>Derived from SRS line 163; Publish step handles 404 by creating release and surfaces other errors gracefully (no destructive actions).</t>
+  </si>
+  <si>
+    <t>TRW-052</t>
+  </si>
+  <si>
+    <t>The workflow **shall be non‑destructive** with respect to existing tags; it **shall never move** an existing tag ref.</t>
+  </si>
+  <si>
+    <t>Quality/Safety</t>
+  </si>
+  <si>
+    <t>Existing tags are never moved automatically.</t>
+  </si>
+  <si>
+    <t>Create an existing tag and attempt to move it; verify the workflow refuses to force-update.</t>
+  </si>
+  <si>
+    <t>Git command logs; tag ref remains unchanged.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 163</t>
-  </si>
-  <si>
-    <t>TRW-052</t>
-  </si>
-  <si>
-    <t>The workflow **shall be non‑destructive** with respect to existing tags; it **shall never move** an existing tag ref.</t>
-  </si>
-  <si>
-    <t>Quality/Safety</t>
-  </si>
-  <si>
-    <t>Existing tags are never moved automatically.</t>
-  </si>
-  <si>
-    <t>Create an existing tag and attempt to move it; verify the workflow refuses to force-update.</t>
-  </si>
-  <si>
-    <t>Git command logs; tag ref remains unchanged.</t>
   </si>
   <si>
     <t>Derived from SRS line 164</t>
@@ -2695,27 +2695,27 @@
         <v>29</v>
       </c>
       <c r="M31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" t="s">
         <v>223</v>
-      </c>
-      <c r="N31" t="s">
-        <v>31</v>
-      </c>
-      <c r="R31" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s">
         <v>211</v>
       </c>
       <c r="C32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" t="s">
         <v>226</v>
-      </c>
-      <c r="D32" t="s">
-        <v>227</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -2727,22 +2727,22 @@
         <v>24</v>
       </c>
       <c r="H32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" t="s">
         <v>228</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>229</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" t="s">
         <v>230</v>
-      </c>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" t="s">
-        <v>29</v>
-      </c>
-      <c r="M32" t="s">
-        <v>223</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -2789,7 +2789,7 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -731,25 +731,25 @@
     <t>Git command logs; tag ref remains unchanged.</t>
   </si>
   <si>
+    <t>Derived from SRS line 164; Tag-and-release workflow refuses to move existing tags (fails on conflict, never force-updates).</t>
+  </si>
+  <si>
+    <t>TRW-053</t>
+  </si>
+  <si>
+    <t>Re‑runs of the workflow for the same commit and computed version **shall be idempotent**, producing no duplicate tags or releases and no conflicting state.</t>
+  </si>
+  <si>
+    <t>No duplicate tags/releases are created on re-runs; operations are idempotent.</t>
+  </si>
+  <si>
+    <t>Re-run the workflow for the same commit and inputs twice.</t>
+  </si>
+  <si>
+    <t>Run history and resulting refs/releases (no duplicates).</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 164</t>
-  </si>
-  <si>
-    <t>TRW-053</t>
-  </si>
-  <si>
-    <t>Re‑runs of the workflow for the same commit and computed version **shall be idempotent**, producing no duplicate tags or releases and no conflicting state.</t>
-  </si>
-  <si>
-    <t>No duplicate tags/releases are created on re-runs; operations are idempotent.</t>
-  </si>
-  <si>
-    <t>Re-run the workflow for the same commit and inputs twice.</t>
-  </si>
-  <si>
-    <t>Run history and resulting refs/releases (no duplicates).</t>
   </si>
   <si>
     <t>Derived from SRS line 165</t>
@@ -2742,24 +2742,24 @@
         <v>29</v>
       </c>
       <c r="M32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" t="s">
         <v>230</v>
-      </c>
-      <c r="N32" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
         <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33" t="s">
         <v>167</v>
@@ -2774,22 +2774,22 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
+        <v>233</v>
+      </c>
+      <c r="I33" t="s">
         <v>234</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>235</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" t="s">
         <v>236</v>
-      </c>
-      <c r="K33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" t="s">
-        <v>230</v>
       </c>
       <c r="N33" t="s">
         <v>31</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -749,31 +749,31 @@
     <t>Run history and resulting refs/releases (no duplicates).</t>
   </si>
   <si>
+    <t>Derived from SRS line 165; Tag-and-release workflow skips existing same-commit tags and upserts releases, preventing duplicates on reruns.</t>
+  </si>
+  <si>
+    <t>TRW-060</t>
+  </si>
+  <si>
+    <t>9.7 Observability &amp; Logging</t>
+  </si>
+  <si>
+    <t>The workflow **shall log** at start: commit SHA, head branch, upstream `workflow_run` ID, computed `VERSION_STRING`.</t>
+  </si>
+  <si>
+    <t>Process/Usability</t>
+  </si>
+  <si>
+    <t>All required context fields are logged in a structured way.</t>
+  </si>
+  <si>
+    <t>Check logs include commit SHA, branch, workflow_run ID, and version string.</t>
+  </si>
+  <si>
+    <t>Log excerpts with the four fields present.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 165</t>
-  </si>
-  <si>
-    <t>TRW-060</t>
-  </si>
-  <si>
-    <t>9.7 Observability &amp; Logging</t>
-  </si>
-  <si>
-    <t>The workflow **shall log** at start: commit SHA, head branch, upstream `workflow_run` ID, computed `VERSION_STRING`.</t>
-  </si>
-  <si>
-    <t>Process/Usability</t>
-  </si>
-  <si>
-    <t>All required context fields are logged in a structured way.</t>
-  </si>
-  <si>
-    <t>Check logs include commit SHA, branch, workflow_run ID, and version string.</t>
-  </si>
-  <si>
-    <t>Log excerpts with the four fields present.</t>
   </si>
   <si>
     <t>Derived from SRS line 171</t>
@@ -2789,27 +2789,27 @@
         <v>29</v>
       </c>
       <c r="M33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" t="s">
         <v>236</v>
-      </c>
-      <c r="N33" t="s">
-        <v>31</v>
-      </c>
-      <c r="R33" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="s">
         <v>238</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>239</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>240</v>
-      </c>
-      <c r="D34" t="s">
-        <v>241</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -2821,22 +2821,22 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" t="s">
         <v>242</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>243</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" t="s">
         <v>244</v>
-      </c>
-      <c r="K34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" t="s">
-        <v>236</v>
       </c>
       <c r="N34" t="s">
         <v>31</v>
@@ -2850,13 +2850,13 @@
         <v>246</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" t="s">
         <v>247</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2897,7 +2897,7 @@
         <v>252</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s">
         <v>253</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -773,25 +773,25 @@
     <t>Log excerpts with the four fields present.</t>
   </si>
   <si>
+    <t>Derived from SRS line 171; Tag-and-release logs commit, branch, workflow_run ID, and version via context logging step.</t>
+  </si>
+  <si>
+    <t>TRW-061</t>
+  </si>
+  <si>
+    <t>The workflow **shall log** decision outcomes: bump type, suffix rule applied, tag existence outcome, artifact discovery results.</t>
+  </si>
+  <si>
+    <t>Each decision point emits a structured log entry.</t>
+  </si>
+  <si>
+    <t>Confirm decision logs for bump, suffix rules, tag existence, and artifact discovery.</t>
+  </si>
+  <si>
+    <t>Collected log entries covering all decision items.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 171</t>
-  </si>
-  <si>
-    <t>TRW-061</t>
-  </si>
-  <si>
-    <t>The workflow **shall log** decision outcomes: bump type, suffix rule applied, tag existence outcome, artifact discovery results.</t>
-  </si>
-  <si>
-    <t>Each decision point emits a structured log entry.</t>
-  </si>
-  <si>
-    <t>Confirm decision logs for bump, suffix rules, tag existence, and artifact discovery.</t>
-  </si>
-  <si>
-    <t>Collected log entries covering all decision items.</t>
   </si>
   <si>
     <t>Derived from SRS line 172</t>
@@ -2836,24 +2836,24 @@
         <v>29</v>
       </c>
       <c r="M34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" t="s">
         <v>244</v>
-      </c>
-      <c r="N34" t="s">
-        <v>31</v>
-      </c>
-      <c r="R34" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s">
         <v>238</v>
       </c>
       <c r="C35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D35" t="s">
         <v>240</v>
@@ -2868,22 +2868,22 @@
         <v>24</v>
       </c>
       <c r="H35" t="s">
+        <v>247</v>
+      </c>
+      <c r="I35" t="s">
         <v>248</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>249</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" t="s">
         <v>250</v>
-      </c>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" t="s">
-        <v>244</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -2930,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -791,25 +791,25 @@
     <t>Collected log entries covering all decision items.</t>
   </si>
   <si>
+    <t>Derived from SRS line 172; Workflow logs bump type, suffix application, tag existence outcome, and artifact discovery decisions.</t>
+  </si>
+  <si>
+    <t>TRW-062</t>
+  </si>
+  <si>
+    <t>All failure conditions **shall include** actionable diagnostics indicating detection point, probable cause, and remediation guidance.</t>
+  </si>
+  <si>
+    <t>Failures include actionable diagnostics (errors, causes, next steps).</t>
+  </si>
+  <si>
+    <t>Induce a few failure modes and check that detailed diagnostics are emitted.</t>
+  </si>
+  <si>
+    <t>Failure logs for representative cases.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 172</t>
-  </si>
-  <si>
-    <t>TRW-062</t>
-  </si>
-  <si>
-    <t>All failure conditions **shall include** actionable diagnostics indicating detection point, probable cause, and remediation guidance.</t>
-  </si>
-  <si>
-    <t>Failures include actionable diagnostics (errors, causes, next steps).</t>
-  </si>
-  <si>
-    <t>Induce a few failure modes and check that detailed diagnostics are emitted.</t>
-  </si>
-  <si>
-    <t>Failure logs for representative cases.</t>
   </si>
   <si>
     <t>Derived from SRS line 173</t>
@@ -2883,24 +2883,24 @@
         <v>29</v>
       </c>
       <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" t="s">
         <v>250</v>
-      </c>
-      <c r="N35" t="s">
-        <v>31</v>
-      </c>
-      <c r="R35" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s">
         <v>238</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
         <v>62</v>
@@ -2915,22 +2915,22 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
+        <v>253</v>
+      </c>
+      <c r="I36" t="s">
         <v>254</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>255</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" t="s">
         <v>256</v>
-      </c>
-      <c r="K36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" t="s">
-        <v>29</v>
-      </c>
-      <c r="M36" t="s">
-        <v>250</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -2977,7 +2977,7 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -809,31 +809,31 @@
     <t>Failure logs for representative cases.</t>
   </si>
   <si>
+    <t>Derived from SRS line 173; Failure paths emit actionable diagnostics with detection point, cause, and remediation (tag conflicts, push retries, artifact validation).</t>
+  </si>
+  <si>
+    <t>TRW-070</t>
+  </si>
+  <si>
+    <t>9.8 Efficiency &amp; Runner Behavior</t>
+  </si>
+  <si>
+    <t>The workflow **shall perform a single repository checkout** per job.</t>
+  </si>
+  <si>
+    <t>Process/Efficiency</t>
+  </si>
+  <si>
+    <t>Only one checkout step is present.</t>
+  </si>
+  <si>
+    <t>Ensure repository uses a single `actions/checkout` per job.</t>
+  </si>
+  <si>
+    <t>Workflow YAML highlighting checkout usage.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 173</t>
-  </si>
-  <si>
-    <t>TRW-070</t>
-  </si>
-  <si>
-    <t>9.8 Efficiency &amp; Runner Behavior</t>
-  </si>
-  <si>
-    <t>The workflow **shall perform a single repository checkout** per job.</t>
-  </si>
-  <si>
-    <t>Process/Efficiency</t>
-  </si>
-  <si>
-    <t>Only one checkout step is present.</t>
-  </si>
-  <si>
-    <t>Ensure repository uses a single `actions/checkout` per job.</t>
-  </si>
-  <si>
-    <t>Workflow YAML highlighting checkout usage.</t>
   </si>
   <si>
     <t>Derived from SRS line 179</t>
@@ -2930,27 +2930,27 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" t="s">
         <v>256</v>
-      </c>
-      <c r="N36" t="s">
-        <v>31</v>
-      </c>
-      <c r="R36" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" t="s">
         <v>258</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>259</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>260</v>
-      </c>
-      <c r="D37" t="s">
-        <v>261</v>
       </c>
       <c r="E37" t="s">
         <v>76</v>
@@ -2962,22 +2962,22 @@
         <v>24</v>
       </c>
       <c r="H37" t="s">
+        <v>261</v>
+      </c>
+      <c r="I37" t="s">
         <v>262</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>263</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" t="s">
         <v>264</v>
-      </c>
-      <c r="K37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" t="s">
-        <v>256</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -2991,7 +2991,7 @@
         <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" t="s">
         <v>267</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3038,7 +3038,7 @@
         <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" t="s">
         <v>274</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -833,28 +833,28 @@
     <t>Workflow YAML highlighting checkout usage.</t>
   </si>
   <si>
+    <t>Derived from SRS line 179; tag-and-release job performs a single actions/checkout step.</t>
+  </si>
+  <si>
+    <t>TRW-071</t>
+  </si>
+  <si>
+    <t>The workflow **shall ensure full Git history** is available for tag reachability and commit counting.</t>
+  </si>
+  <si>
+    <t>Process/Correctness</t>
+  </si>
+  <si>
+    <t>Full git history is available to the job.</t>
+  </si>
+  <si>
+    <t>Verify `fetch-depth: 0` or equivalent full-history fetch is configured.</t>
+  </si>
+  <si>
+    <t>Checkout step config and `git rev-list` depth proof.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 179</t>
-  </si>
-  <si>
-    <t>TRW-071</t>
-  </si>
-  <si>
-    <t>The workflow **shall ensure full Git history** is available for tag reachability and commit counting.</t>
-  </si>
-  <si>
-    <t>Process/Correctness</t>
-  </si>
-  <si>
-    <t>Full git history is available to the job.</t>
-  </si>
-  <si>
-    <t>Verify `fetch-depth: 0` or equivalent full-history fetch is configured.</t>
-  </si>
-  <si>
-    <t>Checkout step config and `git rev-list` depth proof.</t>
   </si>
   <si>
     <t>Derived from SRS line 180</t>
@@ -2977,27 +2977,27 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" t="s">
         <v>264</v>
-      </c>
-      <c r="N37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R37" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s">
         <v>258</v>
       </c>
       <c r="C38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" t="s">
         <v>267</v>
-      </c>
-      <c r="D38" t="s">
-        <v>268</v>
       </c>
       <c r="E38" t="s">
         <v>22</v>
@@ -3009,22 +3009,22 @@
         <v>24</v>
       </c>
       <c r="H38" t="s">
+        <v>268</v>
+      </c>
+      <c r="I38" t="s">
         <v>269</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>270</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
         <v>271</v>
-      </c>
-      <c r="K38" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" t="s">
-        <v>264</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3071,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -854,28 +854,28 @@
     <t>Checkout step config and `git rev-list` depth proof.</t>
   </si>
   <si>
+    <t>Derived from SRS line 180; Tag-and-release checkout uses fetch-depth: 0 for full history to support reachability and commit counting.</t>
+  </si>
+  <si>
+    <t>TRW-072</t>
+  </si>
+  <si>
+    <t>The workflow **shall not leave persistent configuration side effects** on self‑hosted runners (no global git config mutations beyond the job scope).</t>
+  </si>
+  <si>
+    <t>Process/Safety</t>
+  </si>
+  <si>
+    <t>Runner state is clean post-run (no orphaned files/tokens/config).</t>
+  </si>
+  <si>
+    <t>Run on a self-hosted runner and verify no persistent configuration side effects remain after completion.</t>
+  </si>
+  <si>
+    <t>Before/after runner state diff, cleanup logs.</t>
+  </si>
+  <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 180</t>
-  </si>
-  <si>
-    <t>TRW-072</t>
-  </si>
-  <si>
-    <t>The workflow **shall not leave persistent configuration side effects** on self‑hosted runners (no global git config mutations beyond the job scope).</t>
-  </si>
-  <si>
-    <t>Process/Safety</t>
-  </si>
-  <si>
-    <t>Runner state is clean post-run (no orphaned files/tokens/config).</t>
-  </si>
-  <si>
-    <t>Run on a self-hosted runner and verify no persistent configuration side effects remain after completion.</t>
-  </si>
-  <si>
-    <t>Before/after runner state diff, cleanup logs.</t>
   </si>
   <si>
     <t>Derived from SRS line 181</t>
@@ -3024,27 +3024,27 @@
         <v>29</v>
       </c>
       <c r="M38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" t="s">
         <v>271</v>
-      </c>
-      <c r="N38" t="s">
-        <v>31</v>
-      </c>
-      <c r="R38" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s">
         <v>258</v>
       </c>
       <c r="C39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" t="s">
         <v>274</v>
-      </c>
-      <c r="D39" t="s">
-        <v>275</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
@@ -3056,22 +3056,22 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
+        <v>275</v>
+      </c>
+      <c r="I39" t="s">
         <v>276</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>277</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" t="s">
         <v>278</v>
-      </c>
-      <c r="K39" t="s">
-        <v>28</v>
-      </c>
-      <c r="L39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M39" t="s">
-        <v>271</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="279">
   <si>
     <t>ID</t>
   </si>
@@ -875,10 +875,7 @@
     <t>Before/after runner state diff, cleanup logs.</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Derived from SRS line 181</t>
+    <t>Derived from SRS line 181; Workflow uses local git config only; no global/persistent state changes on runners.</t>
   </si>
 </sst>
 </file>
@@ -3071,13 +3068,13 @@
         <v>29</v>
       </c>
       <c r="M39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" t="s">
         <v>278</v>
-      </c>
-      <c r="N39" t="s">
-        <v>31</v>
-      </c>
-      <c r="R39" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/TRW_Verification_Checklist.xlsx
+++ b/docs/requirements/TRW_Verification_Checklist.xlsx
@@ -94,7 +94,7 @@
     <t>Only `workflow_run` is declared with `workflows: [CI Pipeline (Composite)]` and `types: [completed]`.</t>
   </si>
   <si>
-    <t xml:space="preserve">Open `.github/workflows/tag-and-release.yml`.
+    <t xml:space="preserve">Open `.github/workflows/draft-release.yml`.
 Verify `on.workflow_run.workflows` includes `CI Pipeline (Composite)` and `on.workflow_run.types` includes `completed`.
 Confirm no other event triggers (`push`, `pull_request`, schedule) are defined for this workflow.</t>
   </si>
@@ -114,7 +114,7 @@
     <t>2025-11-20</t>
   </si>
   <si>
-    <t>Derived from SRS line 109; Verified .github/workflows/tag-and-release.yml allows only workflow_run from CI Pipeline (Composite) with type completed; no other triggers.</t>
+    <t>Derived from SRS line 109; Verified .github/workflows/draft-release.yml allows only workflow_run from CI Pipeline (Composite) with type completed; no other triggers.</t>
   </si>
   <si>
     <t>TRW-002</t>
@@ -130,13 +130,13 @@
   </si>
   <si>
     <t xml:space="preserve">Create a controlled upstream run with `conclusion=success` and another with `conclusion=failure` (e.g., dispatch or replay).
-Observe tag-and-release workflow behavior for both upstream runs.</t>
+Observe draft-release workflow behavior for both upstream runs.</t>
   </si>
   <si>
     <t>Two run URLs with conclusions and downstream run status.; Logs showing conditional gate `github.event.workflow_run.conclusion == 'success'`.</t>
   </si>
   <si>
-    <t>Derived from SRS line 110; Guard present in .github/workflows/tag-and-release.yml to exit unless workflow_run.conclusion == success.</t>
+    <t>Derived from SRS line 110; Guard present in .github/workflows/draft-release.yml to exit unless workflow_run.conclusion == success.</t>
   </si>
   <si>
     <t>TRW-003</t>
@@ -155,7 +155,7 @@
     <t>YAML snippet with `if: ${{ github.event.workflow_run.event == 'push' }}`.; Run logs/screens showing skip on non-push events.</t>
   </si>
   <si>
-    <t>Derived from SRS line 111; Guard present in .github/workflows/tag-and-release.yml to exit unless workflow_run.event == push.</t>
+    <t>Derived from SRS line 111; Guard present in .github/workflows/draft-release.yml to exit unless workflow_run.event == push.</t>
   </si>
   <si>
     <t>TRW-004</t>
@@ -181,7 +181,7 @@
     <t>Config file or YAML `if` expression showing pattern check.; Run logs from both allowed and disallowed branches.</t>
   </si>
   <si>
-    <t>Derived from SRS line 112; Allow-list enforced in .github/workflows/tag-and-release.yml with defaults (main, develop, release-alpha/*, release-beta/*, release-rc/*) and optional extensions via ALLOWED_BRANCH_PATTERNS.</t>
+    <t>Derived from SRS line 112; Allow-list enforced in .github/workflows/draft-release.yml with defaults (main, develop, release-alpha/*, release-beta/*, release-rc/*) and optional extensions via ALLOWED_BRANCH_PATTERNS.</t>
   </si>
   <si>
     <t>TRW-005</t>
@@ -200,7 +200,7 @@
     <t>Run log capturing no-op decision.; Release/tags UI showing no changes.</t>
   </si>
   <si>
-    <t>Derived from SRS line 113; Branch allow-list gate in .github/workflows/tag-and-release.yml exits before tag/release steps for disallowed branches.</t>
+    <t>Derived from SRS line 113; Branch allow-list gate in .github/workflows/draft-release.yml exits before tag/release steps for disallowed branches.</t>
   </si>
   <si>
     <t>TRW-006</t>
@@ -223,7 +223,7 @@
     <t>YAML snippet of `concurrency` block.; Run timeline screenshots showing queuing/cancellation.</t>
   </si>
   <si>
-    <t>Derived from SRS line 114; Concurrency configured in .github/workflows/tag-and-release.yml with group: ${{ github.workflow }}-${{ github.event.workflow_run.head_sha }} and cancel-in-progress: true to ensure one run per commit.</t>
+    <t>Derived from SRS line 114; Concurrency configured in .github/workflows/draft-release.yml with group: ${{ github.workflow }}-${{ github.event.workflow_run.head_sha }} and cancel-in-progress: true to ensure one run per commit.</t>
   </si>
   <si>
     <t>TRW-010</t>
@@ -391,7 +391,7 @@
     <t>Printed tag value; regex check result.</t>
   </si>
   <si>
-    <t>Derived from SRS line 132; Tag-and-release workflow forms tags as v&lt;MAJOR&gt;.&lt;MINOR&gt;.&lt;PATCH&gt;.&lt;BUILD&gt; without prerelease suffix.</t>
+    <t>Derived from SRS line 132; draft-release workflow forms tags as v&lt;MAJOR&gt;.&lt;MINOR&gt;.&lt;PATCH&gt;.&lt;BUILD&gt; without prerelease suffix.</t>
   </si>
   <si>
     <t>TRW-021</t>
@@ -410,7 +410,7 @@
     <t>Command output or API response showing tag and SHA.</t>
   </si>
   <si>
-    <t>Derived from SRS line 133; Tag-and-release workflow checks origin for existing tag and captures SHA via git ls-remote before creation.</t>
+    <t>Derived from SRS line 133; draft-release workflow checks origin for existing tag and captures SHA via git ls-remote before creation.</t>
   </si>
   <si>
     <t>TRW-022</t>
@@ -429,7 +429,7 @@
     <t>Logs indicating detection of same-commit tag and skip path.</t>
   </si>
   <si>
-    <t>Derived from SRS line 134; Tag-and-release workflow treats existing tag on same commit as success and skips duplicate creation.</t>
+    <t>Derived from SRS line 134; draft-release workflow treats existing tag on same commit as success and skips duplicate creation.</t>
   </si>
   <si>
     <t>TRW-023</t>
@@ -448,7 +448,7 @@
     <t>Logs with the two SHAs and failure status.; Tag ref still points to original commit.</t>
   </si>
   <si>
-    <t>Derived from SRS line 135; Tag-and-release workflow fails if existing tag points to a different commit and does not overwrite it.</t>
+    <t>Derived from SRS line 135; draft-release workflow fails if existing tag points to a different commit and does not overwrite it.</t>
   </si>
   <si>
     <t>TRW-024</t>
@@ -470,7 +470,7 @@
     <t>Logs showing branch-safe versioning decision.</t>
   </si>
   <si>
-    <t>Derived from SRS line 136; Tag-and-release workflow fails on conflicting existing tags, ensuring different branches cannot produce identical tags and overwrite each other.</t>
+    <t>Derived from SRS line 136; draft-release workflow fails on conflicting existing tags, ensuring different branches cannot produce identical tags and overwrite each other.</t>
   </si>
   <si>
     <t>TRW-030</t>
@@ -494,7 +494,7 @@
     <t>Logs of artifact download with run ID.</t>
   </si>
   <si>
-    <t>Derived from SRS line 142; Tag-and-release workflow downloads artifacts from the triggering workflow_run via actions/download-artifact using run-id.</t>
+    <t>Derived from SRS line 142; draft-release workflow downloads artifacts from the triggering workflow_run via actions/download-artifact using run-id.</t>
   </si>
   <si>
     <t>TRW-031</t>
@@ -512,7 +512,7 @@
     <t>Artifact list and local file tree snapshot.</t>
   </si>
   <si>
-    <t>Derived from SRS line 143; Tag-and-release workflow downloads artifacts from triggering workflow_run and lists them under artifacts/ for verification.</t>
+    <t>Derived from SRS line 143; draft-release workflow downloads artifacts from triggering workflow_run and lists them under artifacts/ for verification.</t>
   </si>
   <si>
     <t>TRW-032</t>
@@ -530,7 +530,7 @@
     <t>File list with counts; names of selected files.</t>
   </si>
   <si>
-    <t>Derived from SRS line 144; Tag-and-release workflow enforces exactly one .vip and one release_notes_*.md in artifacts, failing on missing or plural occurrences.</t>
+    <t>Derived from SRS line 144; draft-release workflow enforces exactly one .vip and one release_notes_*.md in artifacts, failing on missing or plural occurrences.</t>
   </si>
   <si>
     <t>TRW-033</t>
@@ -551,7 +551,7 @@
     <t>Screenshot or log of filename match check.</t>
   </si>
   <si>
-    <t>Derived from SRS line 145; Tag-and-release workflow validates both artifact filenames contain computed version string.</t>
+    <t>Derived from SRS line 145; draft-release workflow validates both artifact filenames contain computed version string.</t>
   </si>
   <si>
     <t>TRW-034</t>
@@ -591,7 +591,7 @@
     <t>Release page URL and asset list.</t>
   </si>
   <si>
-    <t>Derived from SRS line 152; Tag-and-release workflow uses softprops/action-gh-release to create a draft release with .vip and release notes attached.</t>
+    <t>Derived from SRS line 152; draft-release workflow uses softprops/action-gh-release to create a draft release with .vip and release notes attached.</t>
   </si>
   <si>
     <t>TRW-041</t>
@@ -646,7 +646,7 @@
     <t>Release status in UI/API.</t>
   </si>
   <si>
-    <t>Derived from SRS line 155; Tag-and-release publish step updates existing release, sets draft=false, make_latest=true, and respects prerelease flag.</t>
+    <t>Derived from SRS line 155; draft-release publish step updates existing release, sets draft=false, make_latest=true, and respects prerelease flag.</t>
   </si>
   <si>
     <t>TRW-044</t>
@@ -731,7 +731,7 @@
     <t>Git command logs; tag ref remains unchanged.</t>
   </si>
   <si>
-    <t>Derived from SRS line 164; Tag-and-release workflow refuses to move existing tags (fails on conflict, never force-updates).</t>
+    <t>Derived from SRS line 164; draft-release workflow refuses to move existing tags (fails on conflict, never force-updates).</t>
   </si>
   <si>
     <t>TRW-053</t>
@@ -749,7 +749,7 @@
     <t>Run history and resulting refs/releases (no duplicates).</t>
   </si>
   <si>
-    <t>Derived from SRS line 165; Tag-and-release workflow skips existing same-commit tags and upserts releases, preventing duplicates on reruns.</t>
+    <t>Derived from SRS line 165; draft-release workflow skips existing same-commit tags and upserts releases, preventing duplicates on reruns.</t>
   </si>
   <si>
     <t>TRW-060</t>
@@ -773,7 +773,7 @@
     <t>Log excerpts with the four fields present.</t>
   </si>
   <si>
-    <t>Derived from SRS line 171; Tag-and-release logs commit, branch, workflow_run ID, and version via context logging step.</t>
+    <t>Derived from SRS line 171; draft-release logs commit, branch, workflow_run ID, and version via context logging step.</t>
   </si>
   <si>
     <t>TRW-061</t>
@@ -833,7 +833,7 @@
     <t>Workflow YAML highlighting checkout usage.</t>
   </si>
   <si>
-    <t>Derived from SRS line 179; tag-and-release job performs a single actions/checkout step.</t>
+    <t>Derived from SRS line 179; draft-release job performs a single actions/checkout step.</t>
   </si>
   <si>
     <t>TRW-071</t>
@@ -854,7 +854,7 @@
     <t>Checkout step config and `git rev-list` depth proof.</t>
   </si>
   <si>
-    <t>Derived from SRS line 180; Tag-and-release checkout uses fetch-depth: 0 for full history to support reachability and commit counting.</t>
+    <t>Derived from SRS line 180; draft-release checkout uses fetch-depth: 0 for full history to support reachability and commit counting.</t>
   </si>
   <si>
     <t>TRW-072</t>
